--- a/archivos_excel/resul_mayo_1_10.xlsx
+++ b/archivos_excel/resul_mayo_1_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JVelazquez\ofertas_proveedores\archivos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFBB64-CCC2-4748-A64E-07B1C83534F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858751D2-FE96-47E5-93A5-1541808DE15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6946C28-87DC-4FA5-9F27-FCC8B178C306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="11" xr2:uid="{F6946C28-87DC-4FA5-9F27-FCC8B178C306}"/>
   </bookViews>
   <sheets>
     <sheet name="ESSITY" sheetId="9" r:id="rId1"/>
@@ -47,10 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="168">
-  <si>
-    <t>IVAN IBARRA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="165">
   <si>
     <t>Proveedor</t>
   </si>
@@ -218,12 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONCHITAS GRANIELOT ENC 10/70 GR                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFERTAS  INTERNAS  </t>
-  </si>
-  <si>
-    <t>VIG.  1  AL  10  DE  MAYO  2025</t>
   </si>
   <si>
     <t xml:space="preserve">000000143 FABRICA DE JABON LA CORONA, S.A. DE C.V.          </t>
@@ -562,7 +553,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,24 +604,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -871,7 +844,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,28 +915,12 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,13 +945,13 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,16 +960,16 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1035,7 +992,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1060,51 +1017,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,12 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1465,7 +1422,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1486,37 +1443,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="82" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1531,26 +1488,26 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="13">
         <v>103.83329999999999</v>
       </c>
@@ -1566,105 +1523,105 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="J5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="K5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
+      <c r="M5" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="1"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="40"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="G7" s="37">
         <v>28.1</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="48">
         <v>0.15</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="39">
         <f>G7*H7</f>
         <v>4.2149999999999999</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="40">
         <v>14</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="39">
         <f>+I7*J7</f>
         <v>59.01</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="41">
         <v>516.62</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="42">
         <f>+K7*L7</f>
         <v>30485.746199999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="56">
+      <c r="L9" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="50">
         <f>SUM(M2:M7)</f>
         <v>35582.189699999995</v>
       </c>
@@ -1688,7 +1645,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,126 +1659,126 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="63">
         <v>563.20000000000005</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="68">
         <v>33.200000000000003</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="45">
+      <c r="I3" s="39"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="39">
         <v>33.200000000000003</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>39</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f>+K3*L3</f>
         <v>1294.8000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>159</v>
+      <c r="A4" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="79">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="73">
         <v>524.29999999999995</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="68">
         <v>33.200000000000003</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="45">
+      <c r="I4" s="39"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="39">
         <v>33.200000000000003</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="41">
         <v>43</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <f>+K4*L4</f>
         <v>1427.6000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="56">
+        <v>51</v>
+      </c>
+      <c r="M6" s="50">
         <f>SUM(M1:M4)</f>
         <v>2722.4000000000005</v>
       </c>
@@ -2107,109 +2064,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
+      <c r="A3" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="H3" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="58">
         <v>8.1300000000000008</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="57">
         <v>112</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="59">
         <f>I3*J3</f>
         <v>910.56000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>159</v>
+      <c r="A4" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="64">
+      <c r="G4" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="58">
         <v>8.1300000000000008</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="57">
         <v>96</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="59">
         <f>I4*J4</f>
         <v>780.48</v>
       </c>
@@ -2217,174 +2174,174 @@
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="56">
+        <v>51</v>
+      </c>
+      <c r="J6" s="50">
         <f>SUM(K1:K4)</f>
         <v>1691.04</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="1"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="51"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="51"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="53"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="1"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="57"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="53"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="41"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="47"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2395,10 +2352,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K7:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,215 +2374,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="C3" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="D3" s="63">
+        <v>44.1</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="65">
+        <v>12</v>
+      </c>
+      <c r="H3" s="39">
+        <f>+F3*G3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="I3" s="66">
+        <v>347.15</v>
+      </c>
+      <c r="J3" s="42">
+        <f>+H3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="47">
+        <f>G3*I3*D3</f>
+        <v>183711.77999999997</v>
+      </c>
+      <c r="L3" s="67">
+        <v>347.1533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="47"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="D6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="H6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="J6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="63">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="69">
-        <v>44.1</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="71">
-        <v>12</v>
-      </c>
-      <c r="H7" s="45">
-        <f>+F7*G7</f>
+      <c r="F8" s="39"/>
+      <c r="G8" s="63">
+        <v>10</v>
+      </c>
+      <c r="H8" s="39">
+        <f>+F8*G8</f>
         <v>0</v>
       </c>
-      <c r="I7" s="72">
-        <v>347.15</v>
-      </c>
-      <c r="J7" s="48">
-        <f>+H7*I7</f>
+      <c r="I8" s="66">
+        <v>200</v>
+      </c>
+      <c r="J8" s="42">
+        <f>+H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K7" s="53">
-        <f>G7*I7*D7</f>
-        <v>183711.77999999997</v>
-      </c>
-      <c r="L7" s="73">
-        <v>347.1533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="G9"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="53"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="69">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="69">
-        <v>10</v>
-      </c>
-      <c r="H12" s="45">
-        <f>+F12*G12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="72">
-        <v>200</v>
-      </c>
-      <c r="J12" s="48">
-        <f>+H12*I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="53">
-        <f>G12*I12*D12</f>
+      <c r="K8" s="47">
+        <f>G8*I8*D8</f>
         <v>79400</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L8" s="63">
         <v>200</v>
       </c>
     </row>
@@ -2846,37 +2763,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="82" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2886,26 +2803,26 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
       <c r="C3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="22">
         <v>83.833299999999994</v>
       </c>
@@ -2926,43 +2843,43 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="J5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="K5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
+      <c r="M5" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2971,465 +2888,465 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="G7" s="37">
         <v>55.9</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="46">
         <v>54.18</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45">
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="39">
         <v>54.18</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="41">
         <v>41.66</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="42">
         <f t="shared" ref="M7:M13" si="0">+K7*L7</f>
         <v>2257.1387999999997</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="G8" s="37">
         <v>143.4</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="46">
         <v>93.68</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45">
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="39">
         <v>93.68</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="41">
         <v>68</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>6370.2400000000007</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="G9" s="37">
         <v>62.1</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="46">
         <v>60.24</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="45">
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39">
         <v>60.24</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="41">
         <v>65.16</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="42">
         <f t="shared" si="0"/>
         <v>3925.2383999999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="G10" s="37">
         <v>164.5</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="46">
         <v>107.4</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45">
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39">
         <v>107.4</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="41">
         <v>105.75</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="42">
         <f t="shared" si="0"/>
         <v>11357.550000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="43">
+      <c r="G11" s="37">
         <v>23.4</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="46">
         <v>45.115028306297035</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45">
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="39">
         <v>45.12</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="41">
         <v>161.93</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="42">
         <f t="shared" si="0"/>
         <v>7306.2816000000003</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="43">
+      <c r="G12" s="37">
         <v>192.1</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="46">
         <v>104.56</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="45">
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39">
         <v>104.56</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="41">
         <v>60.25</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="42">
         <f t="shared" si="0"/>
         <v>6299.74</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="43">
+      <c r="G13" s="37">
         <v>19.8</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="46">
         <v>56.069386102283097</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="45">
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39">
         <v>56.07</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="41">
         <v>62.43</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="42">
         <f t="shared" si="0"/>
         <v>3500.4501</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>24</v>
+      <c r="C14" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="69">
+        <v>151</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="63">
         <v>47.9</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="68">
         <v>46.38</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="45">
+      <c r="I14" s="39"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="39">
         <v>46.38</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="41">
         <v>21</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="42">
         <f>+K14*L14</f>
         <v>973.98</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>24</v>
+      <c r="C15" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="69">
+        <v>151</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="63">
         <v>13.6</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="68">
         <v>33.32</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="45">
+      <c r="I15" s="39"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="39">
         <v>33.32</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="41">
         <v>22.57</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="42">
         <f>+K15*L15</f>
         <v>752.03240000000005</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>24</v>
+      <c r="C16" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="69">
+        <v>151</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="63">
         <v>121.6</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="68">
         <v>65.28</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="45">
+      <c r="I16" s="39"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="39">
         <v>65.28</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="41">
         <v>10</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="42">
         <f>+K16*L16</f>
         <v>652.79999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>24</v>
+      <c r="C17" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="69">
+        <v>151</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="63">
         <v>129</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="68">
         <v>69.239999999999995</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="45">
+      <c r="I17" s="39"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="39">
         <v>69.239999999999995</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="41">
         <v>40</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="42">
         <f>+K17*L17</f>
         <v>2769.6</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>24</v>
+      <c r="C18" s="60" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="69">
+        <v>151</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="63">
         <v>33.9</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="68">
         <v>42.84</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="45">
+      <c r="I18" s="39"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="39">
         <v>42.84</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="41">
         <v>64.989999999999995</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="42">
         <f>+K18*L18</f>
         <v>2784.1716000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="56">
+      <c r="L20" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="50">
         <f>SUM(M3:M18)</f>
         <v>52800.675400000015</v>
       </c>
@@ -3440,7 +3357,7 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3848,283 +3765,283 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="G3" s="37">
         <v>22.3</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="48">
         <v>0.1</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="39">
         <f>+G3*H3</f>
         <v>2.23</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="40">
         <v>10</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="39">
         <f>+I3*J3</f>
         <v>22.3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>311.39999999999998</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f>+K3*L3</f>
         <v>6944.2199999999993</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="56">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="50">
         <f>SUM(M1:M3)</f>
         <v>6944.2199999999993</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="42"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,158 +4070,158 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="G3" s="37">
         <v>36.6</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="38">
         <v>57</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="45">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39">
         <v>57</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>394.6</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f>+K3*L3</f>
         <v>22492.2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>21</v>
+      <c r="C4" s="60" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="69">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="63">
         <v>34.1</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="68">
         <v>22.2</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="45">
+      <c r="I4" s="39"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="39">
         <v>22.2</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="41">
         <v>115.9</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <f>+K4*L4</f>
         <v>2572.98</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="58"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="58"/>
-      <c r="L6" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="56">
+      <c r="D6" s="52"/>
+      <c r="L6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="50">
         <f>SUM(M3:M4)</f>
         <v>25065.18</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="58"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="59"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="58"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="58"/>
+      <c r="D10" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4584,217 +4501,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="62" t="s">
+      <c r="G3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="H3" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="58">
         <v>109.23</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="57">
         <v>453</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="59">
         <f>I3*J3</f>
         <v>49481.19</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="64">
+      <c r="H4" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="58">
         <v>109.23</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="57">
         <v>86</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="59">
         <f>I4*J4</f>
         <v>9393.7800000000007</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="E5" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="64">
+      <c r="H5" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="58">
         <v>109.23</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="57">
         <v>110</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="59">
         <f>I5*J5</f>
         <v>12015.300000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>160</v>
+      <c r="A6" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="64">
+      <c r="E6" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="58">
         <v>109.23</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="57">
         <v>336</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="59">
         <f>I6*J6</f>
         <v>36701.279999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>160</v>
+      <c r="A7" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="60" t="s">
+      <c r="E7" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="64">
+      <c r="G7" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="58">
         <v>96.98</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="57">
         <v>218</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="59">
         <f>I7*J7</f>
         <v>21141.64</v>
       </c>
@@ -4802,16 +4719,16 @@
     <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="56">
+        <v>51</v>
+      </c>
+      <c r="K9" s="50">
         <f>SUM(K1:K7)</f>
         <v>128733.19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5219,541 +5136,541 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="63">
         <v>27.1</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="48">
         <v>0.1</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="39">
         <f>+G3*H3</f>
         <v>2.7100000000000004</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="65">
         <v>12</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="39">
         <f>+I3*J3</f>
         <v>32.520000000000003</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>194.91</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f>+K3*L3</f>
         <v>6338.4732000000004</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>159</v>
+      <c r="A4" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="69">
+      <c r="F4" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="63">
         <v>27.1</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="48">
         <v>0.1</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="39">
         <f>+G4*H4</f>
         <v>2.7100000000000004</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="65">
         <v>12</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="39">
         <f>+I4*J4</f>
         <v>32.520000000000003</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="41">
         <v>124.58</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <f>+K4*L4</f>
         <v>4051.3416000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>159</v>
+      <c r="A5" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="69">
+        <v>151</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="63">
         <v>27.1</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="48">
         <v>0.1</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="39">
         <f>+G5*H5</f>
         <v>2.7100000000000004</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="65">
         <v>12</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="39">
         <f>+I5*J5</f>
         <v>32.520000000000003</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="41">
         <v>57.33</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="42">
         <f>+K5*L5</f>
         <v>1864.3716000000002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>159</v>
+      <c r="A6" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="69">
+        <v>151</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="63">
         <v>13</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="48">
         <v>0.1</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="39">
         <f>+G6*H6</f>
         <v>1.3</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="65">
         <v>20</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="39">
         <f>+I6*J6</f>
         <v>26</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="41">
         <v>1204.3499999999999</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="42">
         <f>+K6*L6</f>
         <v>31313.1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>159</v>
+      <c r="A7" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="79">
+        <v>151</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="73">
         <v>25.3</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="48">
         <v>0.1</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="39">
         <f t="shared" ref="I7:I13" si="0">+G7*H7</f>
         <v>2.5300000000000002</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="74">
         <v>12</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="39">
         <f t="shared" ref="K7:K13" si="1">+I7*J7</f>
         <v>30.360000000000003</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="41">
         <v>257.58</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="42">
         <f t="shared" ref="M7:M13" si="2">+K7*L7</f>
         <v>7820.1288000000004</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>159</v>
+      <c r="A8" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="79">
+      <c r="F8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="73">
         <v>25.3</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="48">
         <v>0.1</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>2.5300000000000002</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="74">
         <v>12</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="39">
         <f t="shared" si="1"/>
         <v>30.360000000000003</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="41">
         <v>151</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="42">
         <f t="shared" si="2"/>
         <v>4584.3600000000006</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>159</v>
+      <c r="A9" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="79">
+        <v>151</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="73">
         <v>25.3</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="48">
         <v>0.1</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>2.5300000000000002</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="74">
         <v>12</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="39">
         <f t="shared" si="1"/>
         <v>30.360000000000003</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="41">
         <v>178.25</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="42">
         <f t="shared" si="2"/>
         <v>5411.670000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>159</v>
+      <c r="A10" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="79">
+        <v>151</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="73">
         <v>25.3</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="48">
         <v>0.1</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>2.5300000000000002</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="74">
         <v>12</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="39">
         <f t="shared" si="1"/>
         <v>30.360000000000003</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="41">
         <v>36.83</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="42">
         <f t="shared" si="2"/>
         <v>1118.1588000000002</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>159</v>
+      <c r="A11" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="79">
+        <v>151</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="73">
         <v>29.9</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="48">
         <v>0.1</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="74">
         <v>12</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="39">
         <f t="shared" si="1"/>
         <v>35.880000000000003</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="41">
         <v>86.75</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="42">
         <f t="shared" si="2"/>
         <v>3112.59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>159</v>
+      <c r="A12" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="79">
+        <v>151</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="73">
         <v>29.9</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="48">
         <v>0.1</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="74">
         <v>12</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="39">
         <f t="shared" si="1"/>
         <v>35.880000000000003</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="41">
         <v>100.92</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="42">
         <f t="shared" si="2"/>
         <v>3621.0096000000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>159</v>
+      <c r="A13" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>120</v>
+        <v>161</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="79">
+        <v>151</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="73">
         <v>12.2</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="48">
         <v>0.1</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="39">
         <f t="shared" si="0"/>
         <v>1.22</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="74">
         <v>20</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="39">
         <f t="shared" si="1"/>
         <v>24.4</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="41">
         <v>504</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="42">
         <f t="shared" si="2"/>
         <v>12297.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="56">
+      <c r="L15" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="50">
         <f>SUM(M1:M13)</f>
         <v>81532.803599999985</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5779,1007 +5696,1007 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="63">
         <v>112.2</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="68">
         <v>162</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="45">
+      <c r="I3" s="39"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="39">
         <v>162</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>19.5</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f t="shared" ref="M3:M15" si="0">+K3*L3</f>
         <v>3159</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>159</v>
+      <c r="A4" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="69">
+      <c r="F4" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="63">
         <v>112.8</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="68">
         <v>168</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="45">
+      <c r="I4" s="39"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="39">
         <v>168</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="41">
         <v>25.7</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>4317.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>159</v>
+      <c r="A5" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="69">
+        <v>151</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="63">
         <v>667.5</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="68">
         <v>52.5</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="45">
+      <c r="I5" s="39"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="39">
         <v>52.5</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="41">
         <v>16</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="42">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>159</v>
+      <c r="A6" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="69">
+        <v>151</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="63">
         <v>507.4</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="68">
         <v>38.4</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="45">
+      <c r="I6" s="39"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="39">
         <v>38.4</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="41">
         <v>124</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="42">
         <f t="shared" si="0"/>
         <v>4761.5999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>159</v>
+      <c r="A7" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="69">
+        <v>151</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="63">
         <v>370</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="68">
         <v>31</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="45">
+      <c r="I7" s="39"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="39">
         <v>31</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="41">
         <v>25</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="42">
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>159</v>
+      <c r="A8" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="69">
+        <v>151</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="63">
         <v>10.5</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="68">
         <v>12</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="45">
+      <c r="I8" s="39"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="39">
         <v>12</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="41">
         <v>176.41</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>2116.92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>159</v>
+      <c r="A9" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="69">
+        <v>151</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="63">
         <v>10.5</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="68">
         <v>12</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="45">
+      <c r="I9" s="39"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="39">
         <v>12</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="41">
         <v>3.17</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="42">
         <f t="shared" si="0"/>
         <v>38.04</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>159</v>
+      <c r="A10" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="69">
+        <v>151</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="63">
         <v>10.5</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="68">
         <v>12</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="45">
+      <c r="I10" s="39"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="39">
         <v>12</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="41">
         <v>214.24</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="42">
         <f t="shared" si="0"/>
         <v>2570.88</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>159</v>
+      <c r="A11" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="69">
+        <v>151</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="63">
         <v>10.5</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="68">
         <v>12</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="45">
+      <c r="I11" s="39"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="39">
         <v>12</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="41">
         <v>102</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="42">
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>159</v>
+      <c r="A12" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="69">
+        <v>151</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="63">
         <v>10.5</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="68">
         <v>12</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="45">
+      <c r="I12" s="39"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="39">
         <v>12</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="41">
         <v>173.25</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="42">
         <f t="shared" si="0"/>
         <v>2079</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>159</v>
+      <c r="A13" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="69">
+        <v>151</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="63">
         <v>10.5</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="68">
         <v>12</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="45">
+      <c r="I13" s="39"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="39">
         <v>12</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="41">
         <v>142.58000000000001</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="42">
         <f t="shared" si="0"/>
         <v>1710.96</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>159</v>
+      <c r="A14" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="69">
+        <v>151</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="63">
         <v>10.5</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="68">
         <v>12</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="45">
+      <c r="I14" s="39"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="39">
         <v>12</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="41">
         <v>209.58</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="42">
         <f t="shared" si="0"/>
         <v>2514.96</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>159</v>
+      <c r="A15" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="69">
+        <v>151</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="63">
         <v>10.5</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="68">
         <v>12</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="45">
+      <c r="I15" s="39"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="39">
         <v>12</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="41">
         <v>185.99</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="42">
         <f t="shared" si="0"/>
         <v>2231.88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>159</v>
+      <c r="A16" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="79">
+        <v>151</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="73">
         <v>104.5</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="68">
         <v>155</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="45">
+      <c r="I16" s="39"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="39">
         <v>155</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="41">
         <v>21.3</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="42">
         <f t="shared" ref="M16:M27" si="1">+K16*L16</f>
         <v>3301.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>159</v>
+      <c r="A17" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="79">
+      <c r="F17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="73">
         <v>105</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="68">
         <v>160</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="45">
+      <c r="I17" s="39"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="39">
         <v>160</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="41">
         <v>35.200000000000003</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="42">
         <f t="shared" si="1"/>
         <v>5632</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>159</v>
+      <c r="A18" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="79">
+        <v>151</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="73">
         <v>621.4</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="68">
         <v>52.4</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="45">
+      <c r="I18" s="39"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="39">
         <v>52.4</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="41">
         <v>12</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="42">
         <f t="shared" si="1"/>
         <v>628.79999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>159</v>
+      <c r="A19" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="79">
+        <v>151</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="73">
         <v>472.4</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="68">
         <v>37.4</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="45">
+      <c r="I19" s="39"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="39">
         <v>37.4</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="41">
         <v>105</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="42">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>159</v>
+      <c r="A20" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="79">
+        <v>151</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="73">
         <v>367.9</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="68">
         <v>28.9</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="45">
+      <c r="I20" s="39"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="39">
         <v>28.9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="41">
         <v>12</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="42">
         <f t="shared" si="1"/>
         <v>346.79999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>159</v>
+      <c r="A21" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="79">
+        <v>151</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="73">
         <v>10</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="68">
         <v>12</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="45">
+      <c r="I21" s="39"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="39">
         <v>12</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="41">
         <v>114.42</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="42">
         <f t="shared" si="1"/>
         <v>1373.04</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>159</v>
+      <c r="A22" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="79">
+        <v>151</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="73">
         <v>10</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="68">
         <v>12</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="45">
+      <c r="I22" s="39"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="39">
         <v>12</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="41">
         <v>147.91999999999999</v>
       </c>
-      <c r="M22" s="48">
+      <c r="M22" s="42">
         <f t="shared" si="1"/>
         <v>1775.04</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>159</v>
+      <c r="A23" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="79">
+        <v>151</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="73">
         <v>10</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="68">
         <v>12</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="45">
+      <c r="I23" s="39"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="39">
         <v>12</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="41">
         <v>44.75</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="42">
         <f t="shared" si="1"/>
         <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>159</v>
+      <c r="A24" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="79">
+        <v>151</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="73">
         <v>10</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="68">
         <v>12</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="45">
+      <c r="I24" s="39"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="39">
         <v>12</v>
       </c>
-      <c r="L24" s="47">
+      <c r="L24" s="41">
         <v>138.91999999999999</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="42">
         <f t="shared" si="1"/>
         <v>1667.04</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>159</v>
+      <c r="A25" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="79">
+        <v>151</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="73">
         <v>10</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="68">
         <v>12</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="45">
+      <c r="I25" s="39"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="39">
         <v>12</v>
       </c>
-      <c r="L25" s="47">
+      <c r="L25" s="41">
         <v>88.42</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="42">
         <f t="shared" si="1"/>
         <v>1061.04</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>159</v>
+      <c r="A26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="79">
+        <v>151</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="73">
         <v>10</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="68">
         <v>12</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="45">
+      <c r="I26" s="39"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="39">
         <v>12</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="41">
         <v>188.58</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="42">
         <f t="shared" si="1"/>
         <v>2262.96</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>159</v>
+      <c r="A27" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="79">
+        <v>151</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="73">
         <v>10</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="68">
         <v>12</v>
       </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="45">
+      <c r="I27" s="39"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="39">
         <v>12</v>
       </c>
-      <c r="L27" s="47">
+      <c r="L27" s="41">
         <v>230.58</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="42">
         <f t="shared" si="1"/>
         <v>2766.96</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="56">
+        <v>51</v>
+      </c>
+      <c r="M29" s="50">
         <f>SUM(M1:M27)</f>
         <v>53619.020000000004</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6805,236 +6722,236 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="63">
         <v>73.599999999999994</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="48">
         <v>0.2</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="39">
         <f>+G3*H3</f>
         <v>14.719999999999999</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="65">
         <v>12</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="39">
         <f>+I3*J3</f>
         <v>176.64</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="41">
         <v>64.41</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="42">
         <f>+K3*L3</f>
         <v>11377.382399999999</v>
       </c>
-      <c r="N3" s="51"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="69">
+      <c r="F4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="63">
         <v>41</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="48">
         <v>0.15</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="39">
         <f>+G4*H4</f>
         <v>6.1499999999999995</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="65">
         <v>12</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="39">
         <f>+I4*J4</f>
         <v>73.8</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="41">
         <v>17.579999999999998</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <f>+K4*L4</f>
         <v>1297.4039999999998</v>
       </c>
-      <c r="N4" s="51"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>82</v>
+      <c r="C5" s="60" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="69">
+        <v>151</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="63">
         <v>117.3</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="48">
         <v>0.15</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="39">
         <f>+G5*H5</f>
         <v>17.594999999999999</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="65">
         <v>12</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="39">
         <f>+I5*J5</f>
         <v>211.14</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="41">
         <v>9.25</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="42">
         <f>+K5*L5</f>
         <v>1953.0449999999998</v>
       </c>
-      <c r="N5" s="51"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>82</v>
+      <c r="C6" s="60" t="s">
+        <v>79</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="69">
+        <v>151</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="63">
         <v>18.600000000000001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="48">
         <v>0.2</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="39">
         <f>+G6*H6</f>
         <v>3.7200000000000006</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="65">
         <v>48</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="39">
         <f>+I6*J6</f>
         <v>178.56000000000003</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="41">
         <v>36.369999999999997</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="42">
         <f>+K6*L6</f>
         <v>6494.2272000000003</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="49">
+        <v>51</v>
+      </c>
+      <c r="M8" s="43">
         <f>SUM(M3:M6)</f>
         <v>21122.0586</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7045,10 +6962,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,245 +6978,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="D1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61" t="s">
+      <c r="E3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="63">
+        <v>126.7</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="39">
+        <f>+G3*H3</f>
+        <v>19.004999999999999</v>
+      </c>
+      <c r="J3" s="65">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39">
+        <f>+I3*J3</f>
+        <v>19.004999999999999</v>
+      </c>
+      <c r="L3" s="41">
+        <v>107</v>
+      </c>
+      <c r="M3" s="42">
+        <f>+K3*L3</f>
+        <v>2033.5349999999999</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="67">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="66" t="s">
+      <c r="C4" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="67" t="s">
+      <c r="F4" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="G4" s="63">
+        <v>126.6</v>
+      </c>
+      <c r="H4" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="39">
+        <f>+G4*H4</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J4" s="65">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39">
+        <f>+I4*J4</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="L4" s="41">
+        <v>78</v>
+      </c>
+      <c r="M4" s="42">
+        <f>+K4*L4</f>
+        <v>1481.2199999999998</v>
+      </c>
+      <c r="N4" s="45"/>
+      <c r="O4" s="67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="69">
-        <v>126.7</v>
-      </c>
-      <c r="H7" s="54">
+      <c r="F5" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="63">
+        <v>126.6</v>
+      </c>
+      <c r="H5" s="48">
         <v>0.15</v>
       </c>
-      <c r="I7" s="45">
-        <f>+G7*H7</f>
-        <v>19.004999999999999</v>
-      </c>
-      <c r="J7" s="71">
+      <c r="I5" s="39">
+        <f>+G5*H5</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J5" s="65">
         <v>1</v>
       </c>
-      <c r="K7" s="45">
-        <f>+I7*J7</f>
-        <v>19.004999999999999</v>
-      </c>
-      <c r="L7" s="47">
-        <v>107</v>
-      </c>
-      <c r="M7" s="48">
-        <f>+K7*L7</f>
-        <v>2033.5349999999999</v>
-      </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="73">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="69">
-        <v>126.6</v>
-      </c>
-      <c r="H8" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="45">
-        <f>+G8*H8</f>
+      <c r="K5" s="39">
+        <f>+I5*J5</f>
         <v>18.989999999999998</v>
       </c>
-      <c r="J8" s="71">
-        <v>1</v>
-      </c>
-      <c r="K8" s="45">
-        <f>+I8*J8</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="L8" s="47">
-        <v>78</v>
-      </c>
-      <c r="M8" s="48">
-        <f>+K8*L8</f>
-        <v>1481.2199999999998</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="73">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="69">
-        <v>126.6</v>
-      </c>
-      <c r="H9" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I9" s="45">
-        <f>+G9*H9</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="J9" s="71">
-        <v>1</v>
-      </c>
-      <c r="K9" s="45">
-        <f>+I9*J9</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="L9" s="47">
+      <c r="L5" s="41">
         <v>12</v>
       </c>
-      <c r="M9" s="48">
-        <f>+K9*L9</f>
+      <c r="M5" s="42">
+        <f>+K5*L5</f>
         <v>227.88</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O5" s="67">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="49">
-        <f>SUM(M7:M9)</f>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="43">
+        <f>SUM(M3:M5)</f>
         <v>3742.6349999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
